--- a/01日本語/log/数量词.xlsx
+++ b/01日本語/log/数量词.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Language\Language_learning\01日本語\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01社科文学\Language\Language_learning\01日本語\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6890" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数词" sheetId="1" r:id="rId1"/>
-    <sheet name="量词" sheetId="2" r:id="rId2"/>
-    <sheet name="敬语" sheetId="3" r:id="rId3"/>
+    <sheet name="量词1" sheetId="2" r:id="rId2"/>
+    <sheet name="量词2" sheetId="4" r:id="rId3"/>
+    <sheet name="量词对象" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="190">
   <si>
     <t>数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,38 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何歳（なんさい）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歳（さい）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いっさい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>よんさい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ななさい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はっさい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>きゅうさい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>じゅっさい</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>いくつ（几个）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,180 +409,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尊敬語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>謙譲語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>言う</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>見る</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>する</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ご覧になる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>なさる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召し上がる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>知っている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寝る</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>くれる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ご存じた</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>お休みになる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>くださる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>おっしゃる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いらっしゃる
-おいでになる
-（お見えになる
-お越しになる）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申し上げる
-申す</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申す</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伺う</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参る</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>おる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拝見する（はいけん）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いたす</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いただく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存じている</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>あげる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>もらう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会う</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思う</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聞く（き）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借りる（か）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訪問する（ほうもん）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>質問する（しつもん）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差し上げる（さ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いただく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>お目にかかる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存じる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拝借する（はいしゃく）</t>
+    <t>個（こ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>階（かい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何個（なんこ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何階（なんかい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっかい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>行く</t>
+      <t>じゅっこ</t>
     </r>
     <r>
       <rPr>
@@ -637,25 +494,69 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>来る</t>
+      <t>じっこ</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（先生から）うかがう-听</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（先生に）うかがう-提问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（お宅＜たく＞に）うかがう</t>
+    <t>何回（なんかい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回（かい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっかい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何冊（なんさつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冊（さつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっさつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんさつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななさつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっさつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうさつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>食べる</t>
+      <t>じゅっかい</t>
     </r>
     <r>
       <rPr>
@@ -679,8 +580,352 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>飲む</t>
+      <t>じっかい</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何本（なんぼん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本（ほん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぽん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぼん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんほん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぽん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななほん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぽん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうほん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>じゅっさつ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>じっさつ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>じゅっぽん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>じっぽん</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～人（にん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～台（だい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～冊（さつ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～歳（さい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～回（かい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～着（ちゃく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～杯（はい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～匹（ひき）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～頭（とう）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～羽（わ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～番（ばん）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～足（そく）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械或车辆：车，机动车，电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄而平：盘子，衬衫，纸，邮票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书，笔记本等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服等几件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～枚（まい）⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立体的物品：鸡蛋，饭团子，球等
+空容器或器皿：盒子，箱子，空罐，玻璃杯等
+概念性，抽象的事物：密码等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～個（こ）⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～本（ほん）⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器内的饮料：茶，咖啡，啤酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细长的物品：瓶，铅笔，伞，香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小动物：狗，猫，昆虫，鱼等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大动物：牛，马，象等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔，鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成对的物品：鞋，袜等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~9岁的年龄
+立体的物品：橘子，帽子等
+抽象的事物：谜，选项等
+不用于10以上的数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～つ（和数词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何歳（なんさい）</t>
+  </si>
+  <si>
+    <t>歳（さい）</t>
+  </si>
+  <si>
+    <t>いっさい</t>
+  </si>
+  <si>
+    <t>よんさい</t>
+  </si>
+  <si>
+    <t>ななさい</t>
+  </si>
+  <si>
+    <t>はっさい</t>
+  </si>
+  <si>
+    <t>きゅうさい</t>
+  </si>
+  <si>
+    <t>じゅっさい</t>
+  </si>
+  <si>
+    <t>20 にたち</t>
+  </si>
+  <si>
+    <t>细长物品：只，条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄而平的物品：张，片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何枚（なんまい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚（まい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和数词（只限10以内）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何杯（なんばい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯（はい）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぽい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんぼい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よんはい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろっぽい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ななはい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっぱい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅっぽい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きゅうまい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じゅうまい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +976,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -854,10 +1099,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -868,9 +1113,29 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -885,7 +1150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,56 +1199,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,429 +1866,644 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11"/>
+      <c r="C3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="18">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>92</v>
+      <c r="E13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="16"/>
-    <col min="2" max="2" width="19.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.9140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="16"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11"/>
+      <c r="C3" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="18">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="23"/>
+      <c r="C14" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="20"/>
+      <c r="B2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="3" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>115</v>
+      <c r="E4" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>117</v>
+      <c r="B6" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>116</v>
+        <v>132</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="32"/>
+        <v>133</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="32"/>
+      <c r="C9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
